--- a/pages/data_push/CLO.xlsx
+++ b/pages/data_push/CLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\nam25_QC\demo_CLO\Robot_Framework_CLO\pages\data_push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD068D7-A8D3-4F93-B034-C315751F9463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4444754-7090-4CED-8050-F0C77A649914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="84" yWindow="1008" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Block chain</t>
   </si>
@@ -49,9 +49,6 @@
     <t>CLO_CODE_VL</t>
   </si>
   <si>
-    <t>ESCRIPTION_VL</t>
-  </si>
-  <si>
     <t>CATEGORY_VL</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>CREDITS_VL</t>
   </si>
 </sst>
 </file>
@@ -540,58 +540,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2818FD-6085-4FDC-8104-E80BC5C9A98C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,42 +623,42 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F570BCDE-0010-435F-861E-338995814C08}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -672,28 +678,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,22 +707,22 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -724,19 +730,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,19 +750,19 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,19 +770,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -784,19 +790,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/pages/data_push/CLO.xlsx
+++ b/pages/data_push/CLO.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\nam25_QC\demo_CLO\Robot_Framework_CLO\pages\data_push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4444754-7090-4CED-8050-F0C77A649914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1576849-2C91-4737-8828-4B15ED6C1142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="1008" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="2052" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
     <sheet name="createcourse" sheetId="2" r:id="rId2"/>
     <sheet name="clo" sheetId="3" r:id="rId3"/>
-    <sheet name="chapter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Block chain</t>
   </si>
@@ -91,9 +90,6 @@
     <t>Elective</t>
   </si>
   <si>
-    <t>Activate</t>
-  </si>
-  <si>
     <t>BL2 - block1</t>
   </si>
   <si>
@@ -115,61 +111,10 @@
     <t>Quiz</t>
   </si>
   <si>
-    <t>HOCPHAN_VL</t>
-  </si>
-  <si>
-    <t>SOCHUONG_VL</t>
-  </si>
-  <si>
-    <t>TIEUDECHUONG_VL</t>
-  </si>
-  <si>
-    <t>NOIDUNGCHUONG-VL</t>
-  </si>
-  <si>
-    <t>MUCTIEUHOCTAP_VL</t>
-  </si>
-  <si>
-    <t>TIME_VL</t>
-  </si>
-  <si>
-    <t>PHUONGPHAPDAY_VL</t>
-  </si>
-  <si>
-    <t>CLOLIENQUAN_VL</t>
-  </si>
-  <si>
-    <t>Chương 1: Giới thiệu</t>
-  </si>
-  <si>
-    <t>Giới thiệu block chain cơ bản</t>
-  </si>
-  <si>
-    <t>Học đầy đủ các chương</t>
-  </si>
-  <si>
-    <t>Offline</t>
-  </si>
-  <si>
-    <t>BL2 - CL002</t>
-  </si>
-  <si>
-    <t>Chương 2: Phát triển</t>
-  </si>
-  <si>
-    <t>Chương 3: Thực hành</t>
-  </si>
-  <si>
-    <t>Phát triển được kỹ năng ht</t>
-  </si>
-  <si>
-    <t>Thực hành kỹ năng làm</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>CREDITS_VL</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -543,7 +488,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,7 +504,7 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -594,10 +539,10 @@
         <v>21</v>
       </c>
       <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +555,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,169 +585,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
       <c r="F2">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F570BCDE-0010-435F-861E-338995814C08}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/pages/data_push/CLO.xlsx
+++ b/pages/data_push/CLO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\nam25_QC\demo_CLO\Robot_Framework_CLO\pages\data_push\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training_Auto\project_clo\pages\data_push\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD068D7-A8D3-4F93-B034-C315751F9463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9553C0A-F084-432B-A129-6BD1D24D0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,9 +515,9 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -543,12 +543,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -571,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -604,12 +613,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -632,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -665,12 +683,22 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -696,7 +724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>3</v>
       </c>
@@ -719,7 +747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -739,7 +767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>5</v>
       </c>
@@ -759,7 +787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -779,7 +807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
